--- a/by_month_region_excel.xlsx
+++ b/by_month_region_excel.xlsx
@@ -8,29 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterzhang/Documents/GitHub/History/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDF01A5-4D46-364F-8682-C6F4B61D4919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAE29F1-1733-D647-810A-9230578B0E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet 1 - by_month_region" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$N$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$N$16:$N$27</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$N$15</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$N$16:$N$27</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$O$16:$O$28</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$O$16:$O$28</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="26">
   <si>
     <t>by_month_region</t>
   </si>
@@ -105,6 +103,9 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Summer Monsoon Wind</t>
   </si>
 </sst>
 </file>
@@ -434,9 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -490,6 +488,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,6 +898,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Southwest</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1173,6 +1199,940 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>East</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>east</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$16:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B7C-5A4C-BB08-30BAB7595316}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1144115216"/>
+        <c:axId val="1144116864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1144115216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1144116864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1144116864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1144115216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>North</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>north</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$16:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E30E-B54E-AAFE-C3112ED8C786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1110075840"/>
+        <c:axId val="956240864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1110075840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956240864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="956240864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1110075840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>West</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$16:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DEE-E645-B3BE-B5CEC9D9D544}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1140985664"/>
+        <c:axId val="1140987840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1140985664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1140987840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1140987840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1140985664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1253,6 +2213,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2259,20 +3339,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2299,15 +4888,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>831850</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2328,6 +4917,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E8FF4D-5299-1443-91DC-53CD5447BE36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED18FC3-03A3-8F41-B908-0B53053C008A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD82B6A-A830-E840-AB60-8B04567BBF8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2680,7 +5377,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D9E545-2D47-7948-BD48-D5259F7417DF}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{34D9E545-2D47-7948-BD48-D5259F7417DF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:G17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -3939,8 +6636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB872D1D-2314-B740-8017-D8BB4F2D7FDB}">
   <dimension ref="A3:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3952,587 +6649,591 @@
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="28" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>50</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>24</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>28</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>9</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>5</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="23">
         <v>66</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>17</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>23</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>9</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26">
+      <c r="F6" s="24"/>
+      <c r="G6" s="25">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="23">
         <v>69</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>17</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>35</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>10</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>11</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>142</v>
       </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>73</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>21</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>14</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>7</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>2</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="23">
         <v>52</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>18</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>32</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>8</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>4</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="23">
         <v>88</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>19</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>42</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>12</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>3</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="23">
         <v>58</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>20</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>23</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>11</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>2</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>87</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>32</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>18</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>7</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>7</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="25">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <v>115</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>44</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <v>16</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <v>10</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>7</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="25">
         <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="23">
         <v>86</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>34</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>19</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <v>13</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>14</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="23">
         <v>84</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>23</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <v>23</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>8</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>3</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="25">
         <v>141</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="23">
         <v>93</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>46</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <v>18</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <v>19</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>9</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="25">
         <v>185</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="23">
         <v>93</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="24">
         <v>46</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="24">
         <v>18</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="24">
         <v>19</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>921</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>315</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>291</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>123</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="28">
         <v>67</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="29">
         <v>1717</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="23">
         <v>73</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="24">
         <v>21</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="24">
         <v>14</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="24">
         <v>7</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="23">
         <v>66</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="24">
         <v>17</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="24">
         <v>23</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="24">
         <v>9</v>
       </c>
-      <c r="O18" s="25"/>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="23">
         <v>84</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="24">
         <v>23</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="24">
         <v>23</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="24">
         <v>8</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="23">
         <v>52</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="24">
         <v>18</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="24">
         <v>32</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="24">
         <v>8</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="23">
         <v>58</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="24">
         <v>20</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="24">
         <v>23</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="24">
         <v>11</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="19">
         <v>50</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="20">
         <v>24</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="20">
         <v>28</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="20">
         <v>9</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="23">
         <v>88</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="24">
         <v>19</v>
       </c>
-      <c r="M23" s="25">
+      <c r="M23" s="24">
         <v>42</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23" s="24">
         <v>12</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="23">
         <v>69</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="24">
         <v>17</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="24">
         <v>35</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="24">
         <v>10</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="24">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="23">
         <v>86</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="24">
         <v>34</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="24">
         <v>19</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="24">
         <v>13</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="24">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="J26" s="23" t="s">
+      <c r="J26" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="23">
         <v>87</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="24">
         <v>32</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="24">
         <v>18</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="24">
         <v>7</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="24">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="23">
         <v>115</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="24">
         <v>44</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="24">
         <v>16</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="24">
         <v>10</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="24">
         <v>7</v>
       </c>
     </row>
@@ -4564,12 +7265,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
